--- a/Task_2_Integrated_Data.xlsx
+++ b/Task_2_Integrated_Data.xlsx
@@ -622,7 +622,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S9" t="n">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S16" t="n">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S17" t="n">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S18" t="n">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S19" t="n">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S20" t="n">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S21" t="n">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S22" t="n">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S23" t="n">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S24" t="n">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S25" t="n">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S26" t="n">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S27" t="n">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S28" t="n">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S29" t="n">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S30" t="n">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S31" t="n">
@@ -4132,7 +4132,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S32" t="n">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S33" t="n">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S34" t="n">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S35" t="n">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S36" t="n">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S37" t="n">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S38" t="n">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S39" t="n">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S40" t="n">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S41" t="n">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S42" t="n">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S43" t="n">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S44" t="n">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S45" t="n">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S46" t="n">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S47" t="n">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S48" t="n">
@@ -6153,7 +6153,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S49" t="n">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S50" t="n">
@@ -6387,7 +6387,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S51" t="n">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S52" t="n">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S53" t="n">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S54" t="n">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S55" t="n">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S56" t="n">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S57" t="n">
@@ -7206,7 +7206,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S58" t="n">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S59" t="n">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S60" t="n">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S61" t="n">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S62" t="n">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S63" t="n">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -8114,7 +8114,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -8348,7 +8348,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -8582,7 +8582,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -8844,7 +8844,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S72" t="n">
@@ -8933,7 +8933,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S73" t="n">
@@ -9050,7 +9050,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -9078,7 +9078,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S74" t="n">
@@ -9167,7 +9167,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -9195,7 +9195,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S75" t="n">
@@ -9284,7 +9284,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -9312,7 +9312,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S76" t="n">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S77" t="n">
@@ -9518,7 +9518,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -9546,7 +9546,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S78" t="n">
@@ -9635,7 +9635,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -9663,7 +9663,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S79" t="n">
@@ -9752,7 +9752,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S80" t="n">
@@ -9869,7 +9869,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -9986,7 +9986,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -10014,7 +10014,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S82" t="n">
@@ -10103,7 +10103,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S83" t="n">
@@ -10220,7 +10220,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -10248,7 +10248,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S84" t="n">
@@ -10337,7 +10337,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -10365,7 +10365,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S85" t="n">
@@ -10454,7 +10454,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -10482,7 +10482,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S86" t="n">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S87" t="n">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -10716,7 +10716,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S88" t="n">
@@ -10805,7 +10805,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S89" t="n">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -10950,7 +10950,7 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S90" t="n">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -11067,7 +11067,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S91" t="n">
@@ -11156,7 +11156,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -11184,7 +11184,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S92" t="n">
@@ -11273,7 +11273,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S93" t="n">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -11418,7 +11418,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S94" t="n">
@@ -11507,7 +11507,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -11535,7 +11535,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S95" t="n">
@@ -11624,7 +11624,7 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S96" t="n">
@@ -11741,7 +11741,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -11769,7 +11769,7 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S97" t="n">
@@ -11858,7 +11858,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -11886,7 +11886,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S98" t="n">
@@ -11975,7 +11975,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S99" t="n">
@@ -12092,7 +12092,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -12120,7 +12120,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S100" t="n">
@@ -12237,7 +12237,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S101" t="n">
@@ -12354,7 +12354,7 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S102" t="n">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S103" t="n">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S104" t="n">
@@ -12705,7 +12705,7 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S105" t="n">
@@ -12822,7 +12822,7 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S106" t="n">
@@ -12939,7 +12939,7 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S107" t="n">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S108" t="n">
@@ -13145,7 +13145,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -13262,7 +13262,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -13290,7 +13290,7 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S110" t="n">
@@ -13379,7 +13379,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -13407,7 +13407,7 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S111" t="n">
@@ -13496,7 +13496,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -13524,7 +13524,7 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S112" t="n">
@@ -13641,7 +13641,7 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S113" t="n">
@@ -13758,7 +13758,7 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S114" t="n">
@@ -13875,7 +13875,7 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S115" t="n">
@@ -13992,7 +13992,7 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S116" t="n">
@@ -14109,7 +14109,7 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S117" t="n">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S118" t="n">
@@ -14343,7 +14343,7 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S119" t="n">
@@ -14460,7 +14460,7 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S120" t="n">
@@ -14549,7 +14549,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -14577,7 +14577,7 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S121" t="n">
@@ -14666,7 +14666,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -14694,7 +14694,7 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S122" t="n">
@@ -14783,7 +14783,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -14811,7 +14811,7 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S123" t="n">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -14928,7 +14928,7 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S124" t="n">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -15045,7 +15045,7 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S125" t="n">
@@ -15134,7 +15134,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -15162,7 +15162,7 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S126" t="n">
@@ -15251,7 +15251,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -15279,7 +15279,7 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S127" t="n">
@@ -15368,7 +15368,7 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
@@ -15396,7 +15396,7 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S128" t="n">
@@ -15485,7 +15485,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S129" t="n">
@@ -15602,7 +15602,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -15630,7 +15630,7 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S130" t="n">
@@ -15719,7 +15719,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -15747,7 +15747,7 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S131" t="n">
@@ -15836,7 +15836,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -15864,7 +15864,7 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S132" t="n">
@@ -15953,7 +15953,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -15981,7 +15981,7 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S133" t="n">
@@ -16070,7 +16070,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -16098,7 +16098,7 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S134" t="n">
@@ -16187,7 +16187,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -16215,7 +16215,7 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S135" t="n">
@@ -16304,7 +16304,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -16332,7 +16332,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S136" t="n">
@@ -16421,7 +16421,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -16449,7 +16449,7 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S137" t="n">
@@ -16538,7 +16538,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S138" t="n">
@@ -16655,7 +16655,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
@@ -16683,7 +16683,7 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S139" t="n">
@@ -16772,7 +16772,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -16800,7 +16800,7 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S140" t="n">
@@ -16889,7 +16889,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -16917,7 +16917,7 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S141" t="n">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
@@ -17034,7 +17034,7 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S142" t="n">
@@ -17123,7 +17123,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -17151,7 +17151,7 @@
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S143" t="n">
@@ -17240,7 +17240,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S144" t="n">
@@ -17357,7 +17357,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -17385,7 +17385,7 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S145" t="n">
@@ -17474,7 +17474,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -17502,7 +17502,7 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S146" t="n">
@@ -17591,7 +17591,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -17619,7 +17619,7 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S147" t="n">
@@ -17708,7 +17708,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -17736,7 +17736,7 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S148" t="n">
@@ -18410,7 +18410,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -18438,7 +18438,7 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S154" t="n">
@@ -18555,7 +18555,7 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S155" t="n">
@@ -18672,7 +18672,7 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S156" t="n">
@@ -18789,7 +18789,7 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S157" t="n">
@@ -18906,7 +18906,7 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S158" t="n">
@@ -19463,7 +19463,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -19580,7 +19580,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -19697,7 +19697,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -19814,7 +19814,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -19931,7 +19931,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -20048,7 +20048,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -20165,7 +20165,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -20282,7 +20282,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -20399,7 +20399,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -20516,7 +20516,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -20633,7 +20633,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -20750,7 +20750,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -20867,7 +20867,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -20984,7 +20984,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -21129,7 +21129,7 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S177" t="n">
@@ -21246,7 +21246,7 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S178" t="n">
@@ -21363,7 +21363,7 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S179" t="n">
@@ -21452,7 +21452,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -21480,7 +21480,7 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S180" t="n">
@@ -21569,7 +21569,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -21597,7 +21597,7 @@
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S181" t="n">
@@ -21686,7 +21686,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -21714,7 +21714,7 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S182" t="n">
@@ -21803,7 +21803,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
@@ -21831,7 +21831,7 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S183" t="n">
@@ -21920,7 +21920,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
@@ -21948,7 +21948,7 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S184" t="n">
@@ -22037,7 +22037,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -22065,7 +22065,7 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S185" t="n">
@@ -22154,7 +22154,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -22271,7 +22271,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
@@ -22650,7 +22650,7 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S190" t="n">
@@ -22767,7 +22767,7 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S191" t="n">
@@ -22884,7 +22884,7 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S192" t="n">
@@ -23001,7 +23001,7 @@
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S193" t="n">
@@ -23118,7 +23118,7 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S194" t="n">
@@ -23235,7 +23235,7 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S195" t="n">
@@ -23352,7 +23352,7 @@
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S196" t="n">
@@ -23469,7 +23469,7 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S197" t="n">
@@ -23586,7 +23586,7 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S198" t="n">
@@ -23703,7 +23703,7 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S199" t="n">
@@ -23820,7 +23820,7 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S200" t="n">
@@ -23937,7 +23937,7 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S201" t="n">
@@ -24054,7 +24054,7 @@
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S202" t="n">
@@ -24171,7 +24171,7 @@
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S203" t="n">
@@ -24288,7 +24288,7 @@
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S204" t="n">
@@ -24405,7 +24405,7 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S205" t="n">
@@ -24522,7 +24522,7 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S206" t="n">
@@ -24639,7 +24639,7 @@
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S207" t="n">
@@ -24756,7 +24756,7 @@
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S208" t="n">
@@ -24873,7 +24873,7 @@
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S209" t="n">
@@ -24990,7 +24990,7 @@
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S210" t="n">
@@ -25107,7 +25107,7 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S211" t="n">
@@ -25224,7 +25224,7 @@
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S212" t="n">
@@ -25341,7 +25341,7 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S213" t="n">
@@ -25458,7 +25458,7 @@
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S214" t="n">
@@ -25575,7 +25575,7 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S215" t="n">
@@ -25692,7 +25692,7 @@
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S216" t="n">
@@ -25809,7 +25809,7 @@
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S217" t="n">
@@ -25926,7 +25926,7 @@
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S218" t="n">
@@ -26043,7 +26043,7 @@
       </c>
       <c r="R219" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S219" t="n">
@@ -26132,7 +26132,7 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
@@ -26160,7 +26160,7 @@
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S220" t="n">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
@@ -26277,7 +26277,7 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S221" t="n">
@@ -26366,7 +26366,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
@@ -26394,7 +26394,7 @@
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S222" t="n">
@@ -26483,7 +26483,7 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
@@ -26511,7 +26511,7 @@
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S223" t="n">
@@ -26600,7 +26600,7 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
@@ -26628,7 +26628,7 @@
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S224" t="n">
@@ -26717,7 +26717,7 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
@@ -26745,7 +26745,7 @@
       </c>
       <c r="R225" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S225" t="n">
@@ -26834,7 +26834,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
@@ -26862,7 +26862,7 @@
       </c>
       <c r="R226" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S226" t="n">
@@ -26951,7 +26951,7 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
@@ -26979,7 +26979,7 @@
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S227" t="n">
@@ -27068,7 +27068,7 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
@@ -27096,7 +27096,7 @@
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S228" t="n">
@@ -27185,7 +27185,7 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
@@ -27213,7 +27213,7 @@
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S229" t="n">
@@ -27302,7 +27302,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
@@ -27330,7 +27330,7 @@
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S230" t="n">
@@ -27419,7 +27419,7 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
@@ -27447,7 +27447,7 @@
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S231" t="n">
@@ -27536,7 +27536,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
@@ -27564,7 +27564,7 @@
       </c>
       <c r="R232" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S232" t="n">
@@ -27653,7 +27653,7 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
@@ -27681,7 +27681,7 @@
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S233" t="n">
@@ -27770,7 +27770,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
@@ -27798,7 +27798,7 @@
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S234" t="n">
@@ -27887,7 +27887,7 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
@@ -27915,7 +27915,7 @@
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S235" t="n">
@@ -28004,7 +28004,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
@@ -28032,7 +28032,7 @@
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S236" t="n">
@@ -28121,7 +28121,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
@@ -28149,7 +28149,7 @@
       </c>
       <c r="R237" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S237" t="n">
@@ -28238,7 +28238,7 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
@@ -28266,7 +28266,7 @@
       </c>
       <c r="R238" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S238" t="n">
@@ -28355,7 +28355,7 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
@@ -28383,7 +28383,7 @@
       </c>
       <c r="R239" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S239" t="n">
@@ -28472,7 +28472,7 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
@@ -28500,7 +28500,7 @@
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S240" t="n">
@@ -28589,7 +28589,7 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
@@ -28617,7 +28617,7 @@
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S241" t="n">
@@ -28706,7 +28706,7 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
@@ -28734,7 +28734,7 @@
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S242" t="n">
@@ -28823,7 +28823,7 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
@@ -28851,7 +28851,7 @@
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S243" t="n">
@@ -28940,7 +28940,7 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
@@ -28968,7 +28968,7 @@
       </c>
       <c r="R244" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S244" t="n">
@@ -29057,7 +29057,7 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
@@ -29085,7 +29085,7 @@
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S245" t="n">
@@ -29174,7 +29174,7 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M246" t="inlineStr">
@@ -29202,7 +29202,7 @@
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S246" t="n">
@@ -29291,7 +29291,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
@@ -29319,7 +29319,7 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S247" t="n">
@@ -29408,7 +29408,7 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
@@ -29436,7 +29436,7 @@
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S248" t="n">
@@ -29553,7 +29553,7 @@
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S249" t="n">
@@ -29787,7 +29787,7 @@
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S251" t="n">
@@ -29904,7 +29904,7 @@
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S252" t="n">
@@ -29993,7 +29993,7 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
@@ -30021,7 +30021,7 @@
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S253" t="n">
@@ -30110,7 +30110,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
@@ -30138,7 +30138,7 @@
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S254" t="n">
@@ -30227,7 +30227,7 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
@@ -30255,7 +30255,7 @@
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S255" t="n">
@@ -30344,7 +30344,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
@@ -30372,7 +30372,7 @@
       </c>
       <c r="R256" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S256" t="n">
@@ -30461,7 +30461,7 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
@@ -30489,7 +30489,7 @@
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S257" t="n">
@@ -30606,7 +30606,7 @@
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S258" t="n">
@@ -30695,7 +30695,7 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
@@ -30723,7 +30723,7 @@
       </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S259" t="n">
@@ -30812,7 +30812,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
@@ -30840,7 +30840,7 @@
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S260" t="n">
@@ -30929,7 +30929,7 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
@@ -30957,7 +30957,7 @@
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S261" t="n">
@@ -31046,7 +31046,7 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
@@ -31074,7 +31074,7 @@
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S262" t="n">
@@ -31163,7 +31163,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
@@ -31191,7 +31191,7 @@
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S263" t="n">
@@ -31280,7 +31280,7 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
@@ -31308,7 +31308,7 @@
       </c>
       <c r="R264" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S264" t="n">
@@ -31425,7 +31425,7 @@
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S265" t="n">
@@ -31542,7 +31542,7 @@
       </c>
       <c r="R266" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S266" t="n">
@@ -31631,7 +31631,7 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
@@ -31659,7 +31659,7 @@
       </c>
       <c r="R267" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S267" t="n">
@@ -31748,7 +31748,7 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
@@ -31776,7 +31776,7 @@
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S268" t="n">
@@ -31865,7 +31865,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
@@ -31893,7 +31893,7 @@
       </c>
       <c r="R269" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S269" t="n">
@@ -31982,7 +31982,7 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
@@ -32010,7 +32010,7 @@
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S270" t="n">
@@ -32099,7 +32099,7 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
@@ -32127,7 +32127,7 @@
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S271" t="n">
@@ -32216,7 +32216,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
@@ -32244,7 +32244,7 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S272" t="n">
@@ -32333,7 +32333,7 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
@@ -32361,7 +32361,7 @@
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S273" t="n">
@@ -32450,7 +32450,7 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
@@ -32478,7 +32478,7 @@
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S274" t="n">
@@ -32567,7 +32567,7 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
@@ -32595,7 +32595,7 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S275" t="n">
@@ -32684,7 +32684,7 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
@@ -32712,7 +32712,7 @@
       </c>
       <c r="R276" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S276" t="n">
@@ -32801,7 +32801,7 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
@@ -32829,7 +32829,7 @@
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S277" t="n">
@@ -32918,7 +32918,7 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
@@ -32946,7 +32946,7 @@
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S278" t="n">
@@ -33035,7 +33035,7 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
@@ -33063,7 +33063,7 @@
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S279" t="n">
@@ -33152,7 +33152,7 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
@@ -33180,7 +33180,7 @@
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S280" t="n">
@@ -33269,7 +33269,7 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
@@ -33297,7 +33297,7 @@
       </c>
       <c r="R281" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S281" t="n">
@@ -33386,7 +33386,7 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
@@ -33414,7 +33414,7 @@
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S282" t="n">
@@ -33503,7 +33503,7 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
@@ -33531,7 +33531,7 @@
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S283" t="n">
@@ -33620,7 +33620,7 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M284" t="inlineStr">
@@ -33648,7 +33648,7 @@
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S284" t="n">
@@ -33737,7 +33737,7 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M285" t="inlineStr">
@@ -33765,7 +33765,7 @@
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S285" t="n">
@@ -33854,7 +33854,7 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
@@ -33882,7 +33882,7 @@
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S286" t="n">
@@ -33971,7 +33971,7 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
@@ -33999,7 +33999,7 @@
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S287" t="n">
@@ -34088,7 +34088,7 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M288" t="inlineStr">
@@ -34116,7 +34116,7 @@
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S288" t="n">
@@ -34205,7 +34205,7 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
@@ -34233,7 +34233,7 @@
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S289" t="n">
@@ -34322,7 +34322,7 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
@@ -34350,7 +34350,7 @@
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S290" t="n">
@@ -34439,7 +34439,7 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
@@ -34467,7 +34467,7 @@
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S291" t="n">
@@ -34556,7 +34556,7 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
@@ -34584,7 +34584,7 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S292" t="n">
@@ -34673,7 +34673,7 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
@@ -34701,7 +34701,7 @@
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S293" t="n">
@@ -34790,7 +34790,7 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
@@ -34818,7 +34818,7 @@
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S294" t="n">
@@ -34907,7 +34907,7 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
@@ -34935,7 +34935,7 @@
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S295" t="n">
@@ -35024,7 +35024,7 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
@@ -35052,7 +35052,7 @@
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S296" t="n">
@@ -35141,7 +35141,7 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M297" t="inlineStr">
@@ -35169,7 +35169,7 @@
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S297" t="n">
@@ -35286,7 +35286,7 @@
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S298" t="n">
@@ -35403,7 +35403,7 @@
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S299" t="n">
@@ -35520,7 +35520,7 @@
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S300" t="n">
@@ -35637,7 +35637,7 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S301" t="n">
@@ -35754,7 +35754,7 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S302" t="n">
@@ -35871,7 +35871,7 @@
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S303" t="n">
@@ -35988,7 +35988,7 @@
       </c>
       <c r="R304" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S304" t="n">
@@ -36105,7 +36105,7 @@
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S305" t="n">
@@ -36222,7 +36222,7 @@
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S306" t="n">
@@ -36339,7 +36339,7 @@
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S307" t="n">
@@ -36456,7 +36456,7 @@
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S308" t="n">
@@ -36573,7 +36573,7 @@
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S309" t="n">
@@ -36690,7 +36690,7 @@
       </c>
       <c r="R310" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S310" t="n">
@@ -36807,7 +36807,7 @@
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S311" t="n">
@@ -36924,7 +36924,7 @@
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S312" t="n">
@@ -37041,7 +37041,7 @@
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S313" t="n">
@@ -37158,7 +37158,7 @@
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S314" t="n">
@@ -37275,7 +37275,7 @@
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S315" t="n">
@@ -37392,7 +37392,7 @@
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S316" t="n">
@@ -37509,7 +37509,7 @@
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S317" t="n">
@@ -37626,7 +37626,7 @@
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S318" t="n">
@@ -37743,7 +37743,7 @@
       </c>
       <c r="R319" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S319" t="n">
@@ -37860,7 +37860,7 @@
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S320" t="n">
@@ -37977,7 +37977,7 @@
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S321" t="n">
@@ -38066,7 +38066,7 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
@@ -38094,7 +38094,7 @@
       </c>
       <c r="R322" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S322" t="n">
@@ -38300,7 +38300,7 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
@@ -38328,7 +38328,7 @@
       </c>
       <c r="R324" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S324" t="n">
@@ -38417,7 +38417,7 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M325" t="inlineStr">
@@ -38445,7 +38445,7 @@
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S325" t="n">
@@ -38534,7 +38534,7 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M326" t="inlineStr">
@@ -38562,7 +38562,7 @@
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S326" t="n">
@@ -38651,7 +38651,7 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
@@ -38679,7 +38679,7 @@
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S327" t="n">
@@ -38768,7 +38768,7 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
@@ -38796,7 +38796,7 @@
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S328" t="n">
@@ -38885,7 +38885,7 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
@@ -38913,7 +38913,7 @@
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S329" t="n">
@@ -39002,7 +39002,7 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
@@ -39030,7 +39030,7 @@
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S330" t="n">
@@ -39119,7 +39119,7 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
@@ -39147,7 +39147,7 @@
       </c>
       <c r="R331" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S331" t="n">
@@ -39236,7 +39236,7 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M332" t="inlineStr">
@@ -39264,7 +39264,7 @@
       </c>
       <c r="R332" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S332" t="n">
@@ -39353,7 +39353,7 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
@@ -39381,7 +39381,7 @@
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S333" t="n">
@@ -39470,7 +39470,7 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M334" t="inlineStr">
@@ -39498,7 +39498,7 @@
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S334" t="n">
@@ -39587,7 +39587,7 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M335" t="inlineStr">
@@ -39615,7 +39615,7 @@
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S335" t="n">
@@ -39704,7 +39704,7 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
@@ -39732,7 +39732,7 @@
       </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S336" t="n">
@@ -39821,7 +39821,7 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
@@ -39849,7 +39849,7 @@
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S337" t="n">
@@ -39938,7 +39938,7 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
@@ -39966,7 +39966,7 @@
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S338" t="n">
@@ -40083,7 +40083,7 @@
       </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S339" t="n">
@@ -40200,7 +40200,7 @@
       </c>
       <c r="R340" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S340" t="n">
@@ -40289,7 +40289,7 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M341" t="inlineStr">
@@ -40317,7 +40317,7 @@
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S341" t="n">
@@ -40406,7 +40406,7 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
@@ -40434,7 +40434,7 @@
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S342" t="n">
@@ -40523,7 +40523,7 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
@@ -40551,7 +40551,7 @@
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S343" t="n">
@@ -40640,7 +40640,7 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
@@ -40668,7 +40668,7 @@
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S344" t="n">
@@ -40757,7 +40757,7 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
@@ -40785,7 +40785,7 @@
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S345" t="n">
@@ -41927,7 +41927,7 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
@@ -41955,7 +41955,7 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S355" t="n">
@@ -42072,7 +42072,7 @@
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S356" t="n">
@@ -42189,7 +42189,7 @@
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S357" t="n">
@@ -44180,7 +44180,7 @@
       </c>
       <c r="R374" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S374" t="n">
@@ -44648,7 +44648,7 @@
       </c>
       <c r="R378" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S378" t="n">
@@ -44767,7 +44767,7 @@
       </c>
       <c r="R379" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S379" t="n">
@@ -44886,7 +44886,7 @@
       </c>
       <c r="R380" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S380" t="n">
@@ -45005,7 +45005,7 @@
       </c>
       <c r="R381" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S381" t="n">
@@ -45124,7 +45124,7 @@
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S382" t="n">
@@ -45243,7 +45243,7 @@
       </c>
       <c r="R383" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S383" t="n">
@@ -45362,7 +45362,7 @@
       </c>
       <c r="R384" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S384" t="n">
@@ -45451,7 +45451,7 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
@@ -45479,7 +45479,7 @@
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S385" t="n">
@@ -45568,7 +45568,7 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
@@ -45596,7 +45596,7 @@
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S386" t="n">
@@ -45685,7 +45685,7 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
@@ -45713,7 +45713,7 @@
       </c>
       <c r="R387" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S387" t="n">
@@ -45802,7 +45802,7 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
@@ -45830,7 +45830,7 @@
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S388" t="n">
@@ -45919,7 +45919,7 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
@@ -45947,7 +45947,7 @@
       </c>
       <c r="R389" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S389" t="n">
@@ -46036,7 +46036,7 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M390" t="inlineStr">
@@ -46064,7 +46064,7 @@
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S390" t="n">
@@ -46153,7 +46153,7 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
@@ -46181,7 +46181,7 @@
       </c>
       <c r="R391" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S391" t="n">
@@ -46270,7 +46270,7 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
@@ -46298,7 +46298,7 @@
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S392" t="n">
@@ -46387,7 +46387,7 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
@@ -46415,7 +46415,7 @@
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S393" t="n">
@@ -46504,7 +46504,7 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M394" t="inlineStr">
@@ -46532,7 +46532,7 @@
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S394" t="n">
@@ -46621,7 +46621,7 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M395" t="inlineStr">
@@ -46649,7 +46649,7 @@
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S395" t="n">
@@ -46738,7 +46738,7 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M396" t="inlineStr">
@@ -46766,7 +46766,7 @@
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S396" t="n">
@@ -46855,7 +46855,7 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M397" t="inlineStr">
@@ -46883,7 +46883,7 @@
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S397" t="n">
@@ -46972,7 +46972,7 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M398" t="inlineStr">
@@ -47000,7 +47000,7 @@
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S398" t="n">
@@ -47089,7 +47089,7 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M399" t="inlineStr">
@@ -47117,7 +47117,7 @@
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S399" t="n">
@@ -47206,7 +47206,7 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M400" t="inlineStr">
@@ -47234,7 +47234,7 @@
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S400" t="n">
@@ -47323,7 +47323,7 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M401" t="inlineStr">
@@ -47351,7 +47351,7 @@
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S401" t="n">
@@ -47440,7 +47440,7 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M402" t="inlineStr">
@@ -47468,7 +47468,7 @@
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S402" t="n">
@@ -47557,7 +47557,7 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M403" t="inlineStr">
@@ -47585,7 +47585,7 @@
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S403" t="n">
@@ -47674,7 +47674,7 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M404" t="inlineStr">
@@ -47702,7 +47702,7 @@
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S404" t="n">
@@ -47791,7 +47791,7 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M405" t="inlineStr">
@@ -47819,7 +47819,7 @@
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S405" t="n">
@@ -47908,7 +47908,7 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M406" t="inlineStr">
@@ -47936,7 +47936,7 @@
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S406" t="n">
@@ -48025,7 +48025,7 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M407" t="inlineStr">
@@ -48053,7 +48053,7 @@
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S407" t="n">
@@ -48142,7 +48142,7 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M408" t="inlineStr">
@@ -48170,7 +48170,7 @@
       </c>
       <c r="R408" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S408" t="n">
@@ -48259,7 +48259,7 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M409" t="inlineStr">
@@ -48287,7 +48287,7 @@
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S409" t="n">
@@ -48376,7 +48376,7 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M410" t="inlineStr">
@@ -48404,7 +48404,7 @@
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S410" t="n">
@@ -48521,7 +48521,7 @@
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S411" t="n">
@@ -48638,7 +48638,7 @@
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S412" t="n">
@@ -48755,7 +48755,7 @@
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S413" t="n">
@@ -48872,7 +48872,7 @@
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S414" t="n">
@@ -48989,7 +48989,7 @@
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S415" t="n">
@@ -49106,7 +49106,7 @@
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S416" t="n">
@@ -49223,7 +49223,7 @@
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S417" t="n">
@@ -49340,7 +49340,7 @@
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S418" t="n">
@@ -49457,7 +49457,7 @@
       </c>
       <c r="R419" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S419" t="n">
@@ -49546,7 +49546,7 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M420" t="inlineStr">
@@ -49574,7 +49574,7 @@
       </c>
       <c r="R420" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S420" t="n">
@@ -49663,7 +49663,7 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M421" t="inlineStr">
@@ -49691,7 +49691,7 @@
       </c>
       <c r="R421" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S421" t="n">
@@ -49808,7 +49808,7 @@
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S422" t="n">
@@ -50161,7 +50161,7 @@
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S425" t="n">
@@ -50278,7 +50278,7 @@
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S426" t="n">
@@ -50395,7 +50395,7 @@
       </c>
       <c r="R427" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S427" t="n">
@@ -50512,7 +50512,7 @@
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S428" t="n">
@@ -50629,7 +50629,7 @@
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S429" t="n">
@@ -50746,7 +50746,7 @@
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S430" t="n">
@@ -50863,7 +50863,7 @@
       </c>
       <c r="R431" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S431" t="n">
@@ -50980,7 +50980,7 @@
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S432" t="n">
@@ -51097,7 +51097,7 @@
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S433" t="n">
@@ -51188,7 +51188,7 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M434" t="inlineStr">
@@ -51216,7 +51216,7 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S434" t="n">
@@ -51307,7 +51307,7 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M435" t="inlineStr">
@@ -51335,7 +51335,7 @@
       </c>
       <c r="R435" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S435" t="n">
@@ -51426,7 +51426,7 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M436" t="inlineStr">
@@ -51454,7 +51454,7 @@
       </c>
       <c r="R436" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S436" t="n">
@@ -51545,7 +51545,7 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M437" t="inlineStr">
@@ -51573,7 +51573,7 @@
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S437" t="n">
@@ -51664,7 +51664,7 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M438" t="inlineStr">
@@ -51692,7 +51692,7 @@
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S438" t="n">
@@ -51783,7 +51783,7 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M439" t="inlineStr">
@@ -51811,7 +51811,7 @@
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S439" t="n">
@@ -51902,7 +51902,7 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M440" t="inlineStr">
@@ -51930,7 +51930,7 @@
       </c>
       <c r="R440" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S440" t="n">
@@ -52021,7 +52021,7 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M441" t="inlineStr">
@@ -52049,7 +52049,7 @@
       </c>
       <c r="R441" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S441" t="n">
@@ -52402,7 +52402,7 @@
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S444" t="n">
@@ -52521,7 +52521,7 @@
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S445" t="n">
@@ -52640,7 +52640,7 @@
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S446" t="n">
@@ -52759,7 +52759,7 @@
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S447" t="n">
@@ -52878,7 +52878,7 @@
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S448" t="n">
@@ -52997,7 +52997,7 @@
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S449" t="n">
@@ -53116,7 +53116,7 @@
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S450" t="n">
@@ -53235,7 +53235,7 @@
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S451" t="n">
@@ -53354,7 +53354,7 @@
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S452" t="n">
@@ -53473,7 +53473,7 @@
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S453" t="n">
@@ -53592,7 +53592,7 @@
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S454" t="n">
@@ -53711,7 +53711,7 @@
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S455" t="n">
@@ -53830,7 +53830,7 @@
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S456" t="n">
@@ -53949,7 +53949,7 @@
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S457" t="n">
@@ -54068,7 +54068,7 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S458" t="n">
@@ -54187,7 +54187,7 @@
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S459" t="n">
@@ -54306,7 +54306,7 @@
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S460" t="n">
@@ -54395,12 +54395,12 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M461" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N461" t="inlineStr">
@@ -54423,7 +54423,7 @@
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S461" t="n">
@@ -54512,12 +54512,12 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M462" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N462" t="inlineStr">
@@ -54540,7 +54540,7 @@
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S462" t="n">
@@ -54629,12 +54629,12 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M463" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N463" t="inlineStr">
@@ -54657,7 +54657,7 @@
       </c>
       <c r="R463" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S463" t="n">
@@ -54746,12 +54746,12 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M464" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N464" t="inlineStr">
@@ -54774,7 +54774,7 @@
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S464" t="n">
@@ -54863,12 +54863,12 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M465" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N465" t="inlineStr">
@@ -54891,7 +54891,7 @@
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S465" t="n">
@@ -54980,12 +54980,12 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M466" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N466" t="inlineStr">
@@ -55008,7 +55008,7 @@
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S466" t="n">
@@ -55097,12 +55097,12 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M467" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N467" t="inlineStr">
@@ -55125,7 +55125,7 @@
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S467" t="n">
@@ -55214,12 +55214,12 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M468" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N468" t="inlineStr">
@@ -55242,7 +55242,7 @@
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S468" t="n">
@@ -55331,12 +55331,12 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M469" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N469" t="inlineStr">
@@ -55359,7 +55359,7 @@
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S469" t="n">
@@ -55448,12 +55448,12 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M470" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N470" t="inlineStr">
@@ -55476,7 +55476,7 @@
       </c>
       <c r="R470" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S470" t="n">
@@ -55565,12 +55565,12 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M471" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N471" t="inlineStr">
@@ -55593,7 +55593,7 @@
       </c>
       <c r="R471" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S471" t="n">
@@ -55682,12 +55682,12 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M472" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N472" t="inlineStr">
@@ -55710,7 +55710,7 @@
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S472" t="n">
@@ -55799,12 +55799,12 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M473" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N473" t="inlineStr">
@@ -55827,7 +55827,7 @@
       </c>
       <c r="R473" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S473" t="n">
@@ -55916,12 +55916,12 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M474" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N474" t="inlineStr">
@@ -55944,7 +55944,7 @@
       </c>
       <c r="R474" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S474" t="n">
@@ -56033,12 +56033,12 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M475" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N475" t="inlineStr">
@@ -56061,7 +56061,7 @@
       </c>
       <c r="R475" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S475" t="n">
@@ -56150,12 +56150,12 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M476" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N476" t="inlineStr">
@@ -56178,7 +56178,7 @@
       </c>
       <c r="R476" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S476" t="n">
@@ -56267,12 +56267,12 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M477" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N477" t="inlineStr">
@@ -56295,7 +56295,7 @@
       </c>
       <c r="R477" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S477" t="n">
@@ -56384,12 +56384,12 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M478" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N478" t="inlineStr">
@@ -56412,7 +56412,7 @@
       </c>
       <c r="R478" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S478" t="n">
@@ -56501,12 +56501,12 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M479" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N479" t="inlineStr">
@@ -56529,7 +56529,7 @@
       </c>
       <c r="R479" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S479" t="n">
@@ -56618,12 +56618,12 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M480" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N480" t="inlineStr">
@@ -56646,7 +56646,7 @@
       </c>
       <c r="R480" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S480" t="n">
@@ -56735,12 +56735,12 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N481" t="inlineStr">
@@ -56763,7 +56763,7 @@
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S481" t="n">
@@ -56852,12 +56852,12 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M482" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N482" t="inlineStr">
@@ -56880,7 +56880,7 @@
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S482" t="n">
@@ -56969,12 +56969,12 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M483" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N483" t="inlineStr">
@@ -56997,7 +56997,7 @@
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S483" t="n">
@@ -57086,12 +57086,12 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M484" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N484" t="inlineStr">
@@ -57114,7 +57114,7 @@
       </c>
       <c r="R484" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S484" t="n">
@@ -57203,12 +57203,12 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M485" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="N485" t="inlineStr">
@@ -57231,7 +57231,7 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S485" t="n">
@@ -57350,7 +57350,7 @@
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S486" t="n">
@@ -57469,7 +57469,7 @@
       </c>
       <c r="R487" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S487" t="n">
@@ -57588,7 +57588,7 @@
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S488" t="n">
@@ -57707,7 +57707,7 @@
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S489" t="n">
@@ -57796,7 +57796,7 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M490" t="inlineStr">
@@ -57824,7 +57824,7 @@
       </c>
       <c r="R490" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S490" t="n">
@@ -57913,7 +57913,7 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M491" t="inlineStr">
@@ -57941,7 +57941,7 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S491" t="n">
@@ -58030,7 +58030,7 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M492" t="inlineStr">
@@ -58058,7 +58058,7 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S492" t="n">
@@ -58147,7 +58147,7 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M493" t="inlineStr">
@@ -58175,7 +58175,7 @@
       </c>
       <c r="R493" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S493" t="n">
@@ -58264,7 +58264,7 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M494" t="inlineStr">
@@ -58292,7 +58292,7 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S494" t="n">
@@ -58381,7 +58381,7 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M495" t="inlineStr">
@@ -58409,7 +58409,7 @@
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S495" t="n">
@@ -58498,7 +58498,7 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M496" t="inlineStr">
@@ -58526,7 +58526,7 @@
       </c>
       <c r="R496" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S496" t="n">
@@ -58615,7 +58615,7 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M497" t="inlineStr">
@@ -58643,7 +58643,7 @@
       </c>
       <c r="R497" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S497" t="n">
@@ -58732,7 +58732,7 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M498" t="inlineStr">
@@ -58760,7 +58760,7 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S498" t="n">
@@ -58877,7 +58877,7 @@
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="S499" t="n">
@@ -58966,7 +58966,7 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
       <c r="M500" t="inlineStr">
